--- a/public_html/archivos/2012_1032_OFERTA_ACADEMICA.xlsx
+++ b/public_html/archivos/2012_1032_OFERTA_ACADEMICA.xlsx
@@ -13,38 +13,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">POSTGRADO!$A$4:$O$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PREGRADO!$A$5:$L$110</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PREGRADO!$A$5:$K$110</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Flor María Ramón</author>
-  </authors>
-  <commentList>
-    <comment ref="L5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-En caso que la carrera se encuentre vigente para el segundo ciclo del 2013 seleccione "RATIFICADO" caso contrario"NO VIGENTE HABILITADO". Realizar este proceso solo para las carreras de Estado "VIGENTE" (columna k)</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1808" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1807" uniqueCount="424">
   <si>
     <t>CÓDIGO IES</t>
   </si>
@@ -131,9 +107,6 @@
   </si>
   <si>
     <t>SECRETARÍA NACIONAL DE EDUCACIÓN SUPERIOR, CIENCIA, TECNOLOGÍA E INNOVACIÓN</t>
-  </si>
-  <si>
-    <t>RATIFICAR EL ESTADO DE LA CARRERA PARA EL SEGUNDO CICLO DEL 2013 (PRÓXIMO EXAMEN SNNA)</t>
   </si>
   <si>
     <t>NO VIGENTE HABILITADO</t>
@@ -1325,7 +1298,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1340,12 +1313,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1568,10 +1535,10 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1666,8 +1633,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1933575</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
@@ -2156,10 +2123,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N110"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2167,17 +2136,16 @@
     <col min="4" max="4" width="16.7109375" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="7" width="17.7109375" customWidth="1"/>
-    <col min="12" max="12" width="29.7109375" customWidth="1"/>
-    <col min="13" max="13" width="4.5703125" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="4.5703125" customWidth="1"/>
+    <col min="13" max="13" width="4.7109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N1" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M1" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>28</v>
       </c>
@@ -2191,14 +2159,13 @@
       <c r="I2" s="19"/>
       <c r="J2" s="19"/>
       <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="N2" s="6" t="s">
+      <c r="M2" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
-        <v>31</v>
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="20"/>
@@ -2210,10 +2177,9 @@
       <c r="I3" s="20"/>
       <c r="J3" s="20"/>
       <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-    </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:14" s="5" customFormat="1" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:13" s="5" customFormat="1" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -2247,28 +2213,25 @@
       <c r="K5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>119</v>
-      </c>
       <c r="E6" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>53</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>13</v>
@@ -2277,33 +2240,33 @@
         <v>25</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J6" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="K6" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C7" s="11" t="s">
+      <c r="D7" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>122</v>
-      </c>
       <c r="E7" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>52</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>53</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>13</v>
@@ -2312,27 +2275,27 @@
         <v>14</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K7" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C8" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>124</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>125</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>16</v>
@@ -2347,27 +2310,27 @@
         <v>14</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J8" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="K8" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C9" s="11" t="s">
+      <c r="D9" s="11" t="s">
         <v>127</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>128</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>20</v>
@@ -2382,27 +2345,27 @@
         <v>14</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K9" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C10" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>130</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>131</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>18</v>
@@ -2417,27 +2380,27 @@
         <v>14</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K10" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C11" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>132</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>133</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>18</v>
@@ -2452,33 +2415,33 @@
         <v>25</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K11" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C12" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>134</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>135</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>13</v>
@@ -2487,27 +2450,27 @@
         <v>14</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K12" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C13" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>136</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>137</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>16</v>
@@ -2522,33 +2485,33 @@
         <v>14</v>
       </c>
       <c r="I13" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="J13" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="K13" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="K13" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C14" s="8" t="s">
+      <c r="D14" s="8" t="s">
         <v>140</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>141</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>18</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>13</v>
@@ -2557,27 +2520,27 @@
         <v>14</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K14" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C15" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D15" s="11" t="s">
         <v>142</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>143</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>18</v>
@@ -2592,33 +2555,33 @@
         <v>14</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K15" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>18</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>13</v>
@@ -2627,10 +2590,10 @@
         <v>25</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K16" s="9" t="s">
         <v>22</v>
@@ -2638,22 +2601,22 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E17" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="11" t="s">
         <v>48</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>49</v>
       </c>
       <c r="G17" s="11" t="s">
         <v>13</v>
@@ -2662,10 +2625,10 @@
         <v>14</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K17" s="12" t="s">
         <v>15</v>
@@ -2673,16 +2636,16 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C18" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>147</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>148</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>16</v>
@@ -2697,10 +2660,10 @@
         <v>14</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K18" s="9" t="s">
         <v>22</v>
@@ -2708,16 +2671,16 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>20</v>
@@ -2732,10 +2695,10 @@
         <v>14</v>
       </c>
       <c r="I19" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="J19" s="11" t="s">
         <v>138</v>
-      </c>
-      <c r="J19" s="11" t="s">
-        <v>139</v>
       </c>
       <c r="K19" s="12" t="s">
         <v>22</v>
@@ -2743,16 +2706,16 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>11</v>
@@ -2767,10 +2730,10 @@
         <v>14</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K20" s="9" t="s">
         <v>15</v>
@@ -2778,16 +2741,16 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C21" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D21" s="11" t="s">
         <v>152</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>153</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>18</v>
@@ -2802,10 +2765,10 @@
         <v>14</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K21" s="12" t="s">
         <v>15</v>
@@ -2813,16 +2776,16 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C22" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>154</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>155</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>11</v>
@@ -2837,10 +2800,10 @@
         <v>14</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K22" s="9" t="s">
         <v>22</v>
@@ -2848,16 +2811,16 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>18</v>
@@ -2872,10 +2835,10 @@
         <v>14</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K23" s="12" t="s">
         <v>15</v>
@@ -2883,16 +2846,16 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C24" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>157</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>158</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>16</v>
@@ -2907,10 +2870,10 @@
         <v>14</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K24" s="9" t="s">
         <v>22</v>
@@ -2918,16 +2881,16 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>16</v>
@@ -2942,10 +2905,10 @@
         <v>14</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K25" s="12" t="s">
         <v>22</v>
@@ -2953,16 +2916,16 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>16</v>
@@ -2977,10 +2940,10 @@
         <v>14</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K26" s="9" t="s">
         <v>22</v>
@@ -2988,16 +2951,16 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C27" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D27" s="11" t="s">
         <v>161</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>162</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>26</v>
@@ -3012,7 +2975,7 @@
         <v>14</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J27" s="11"/>
       <c r="K27" s="12" t="s">
@@ -3021,22 +2984,22 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>13</v>
@@ -3045,10 +3008,10 @@
         <v>25</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K28" s="9" t="s">
         <v>22</v>
@@ -3056,22 +3019,22 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C29" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D29" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="D29" s="11" t="s">
-        <v>166</v>
-      </c>
       <c r="E29" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F29" s="11" t="s">
         <v>52</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>53</v>
       </c>
       <c r="G29" s="11" t="s">
         <v>13</v>
@@ -3080,10 +3043,10 @@
         <v>25</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K29" s="12" t="s">
         <v>22</v>
@@ -3091,22 +3054,22 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C30" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D30" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="D30" s="8" t="s">
-        <v>168</v>
-      </c>
       <c r="E30" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>13</v>
@@ -3115,7 +3078,7 @@
         <v>25</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J30" s="8"/>
       <c r="K30" s="9" t="s">
@@ -3124,16 +3087,16 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C31" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="D31" s="11" t="s">
         <v>169</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>170</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>11</v>
@@ -3148,10 +3111,10 @@
         <v>25</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K31" s="12" t="s">
         <v>22</v>
@@ -3159,22 +3122,22 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C32" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D32" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="D32" s="8" t="s">
-        <v>173</v>
-      </c>
       <c r="E32" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F32" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>38</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>13</v>
@@ -3183,10 +3146,10 @@
         <v>25</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K32" s="9" t="s">
         <v>22</v>
@@ -3194,22 +3157,22 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E33" s="11" t="s">
         <v>18</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>13</v>
@@ -3218,10 +3181,10 @@
         <v>25</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K33" s="12" t="s">
         <v>22</v>
@@ -3229,16 +3192,16 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>16</v>
@@ -3247,13 +3210,13 @@
         <v>24</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H34" s="8" t="s">
         <v>14</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J34" s="8"/>
       <c r="K34" s="9" t="s">
@@ -3262,16 +3225,16 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C35" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="D35" s="11" t="s">
         <v>176</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>177</v>
       </c>
       <c r="E35" s="11" t="s">
         <v>16</v>
@@ -3280,13 +3243,13 @@
         <v>24</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H35" s="11" t="s">
         <v>14</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J35" s="11"/>
       <c r="K35" s="12" t="s">
@@ -3295,22 +3258,22 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E36" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F36" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>53</v>
       </c>
       <c r="G36" s="8" t="s">
         <v>13</v>
@@ -3319,10 +3282,10 @@
         <v>14</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K36" s="9" t="s">
         <v>15</v>
@@ -3330,16 +3293,16 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C37" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="D37" s="11" t="s">
         <v>179</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>180</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>16</v>
@@ -3348,16 +3311,16 @@
         <v>24</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H37" s="11" t="s">
         <v>14</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K37" s="12" t="s">
         <v>15</v>
@@ -3365,16 +3328,16 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>18</v>
@@ -3389,10 +3352,10 @@
         <v>25</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J38" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K38" s="9" t="s">
         <v>22</v>
@@ -3400,16 +3363,16 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C39" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="D39" s="11" t="s">
         <v>183</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>184</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>18</v>
@@ -3424,10 +3387,10 @@
         <v>14</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K39" s="12" t="s">
         <v>22</v>
@@ -3435,34 +3398,34 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C40" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D40" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="D40" s="8" t="s">
-        <v>187</v>
-      </c>
       <c r="E40" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F40" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F40" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="G40" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H40" s="8" t="s">
         <v>14</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K40" s="9" t="s">
         <v>22</v>
@@ -3470,16 +3433,16 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C41" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="D41" s="11" t="s">
         <v>189</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>190</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>16</v>
@@ -3488,16 +3451,16 @@
         <v>24</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H41" s="11" t="s">
         <v>14</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K41" s="12" t="s">
         <v>15</v>
@@ -3505,16 +3468,16 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>11</v>
@@ -3529,10 +3492,10 @@
         <v>14</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J42" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K42" s="9" t="s">
         <v>22</v>
@@ -3540,16 +3503,16 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C43" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="D43" s="11" t="s">
         <v>193</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>194</v>
       </c>
       <c r="E43" s="11" t="s">
         <v>16</v>
@@ -3564,10 +3527,10 @@
         <v>25</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J43" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K43" s="12" t="s">
         <v>22</v>
@@ -3575,34 +3538,34 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E44" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F44" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F44" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="G44" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H44" s="8" t="s">
         <v>14</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J44" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K44" s="9" t="s">
         <v>15</v>
@@ -3610,34 +3573,34 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C45" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="D45" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="D45" s="11" t="s">
-        <v>199</v>
-      </c>
       <c r="E45" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F45" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F45" s="11" t="s">
-        <v>38</v>
-      </c>
       <c r="G45" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H45" s="11" t="s">
         <v>14</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J45" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K45" s="12" t="s">
         <v>15</v>
@@ -3645,34 +3608,34 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C46" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="D46" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="D46" s="8" t="s">
-        <v>201</v>
-      </c>
       <c r="E46" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F46" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F46" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="G46" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H46" s="8" t="s">
         <v>14</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J46" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K46" s="9" t="s">
         <v>15</v>
@@ -3680,34 +3643,34 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E47" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F47" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F47" s="11" t="s">
-        <v>38</v>
-      </c>
       <c r="G47" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H47" s="11" t="s">
         <v>14</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J47" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K47" s="12" t="s">
         <v>15</v>
@@ -3715,34 +3678,34 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C48" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="D48" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="D48" s="8" t="s">
-        <v>204</v>
-      </c>
       <c r="E48" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F48" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F48" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="G48" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H48" s="8" t="s">
         <v>14</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J48" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K48" s="9" t="s">
         <v>15</v>
@@ -3750,34 +3713,34 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E49" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F49" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F49" s="11" t="s">
-        <v>38</v>
-      </c>
       <c r="G49" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H49" s="11" t="s">
         <v>14</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J49" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K49" s="12" t="s">
         <v>15</v>
@@ -3785,34 +3748,34 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C50" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="D50" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="D50" s="8" t="s">
-        <v>207</v>
-      </c>
       <c r="E50" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F50" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F50" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="G50" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H50" s="8" t="s">
         <v>14</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J50" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K50" s="9" t="s">
         <v>15</v>
@@ -3820,16 +3783,16 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E51" s="11" t="s">
         <v>16</v>
@@ -3844,10 +3807,10 @@
         <v>25</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J51" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K51" s="12" t="s">
         <v>22</v>
@@ -3855,22 +3818,22 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E52" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G52" s="8" t="s">
         <v>13</v>
@@ -3879,10 +3842,10 @@
         <v>14</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J52" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K52" s="9" t="s">
         <v>15</v>
@@ -3890,22 +3853,22 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E53" s="11" t="s">
         <v>18</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G53" s="11" t="s">
         <v>13</v>
@@ -3914,10 +3877,10 @@
         <v>14</v>
       </c>
       <c r="I53" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J53" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K53" s="12" t="s">
         <v>15</v>
@@ -3925,22 +3888,22 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C54" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="D54" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="D54" s="8" t="s">
-        <v>213</v>
-      </c>
       <c r="E54" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F54" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>53</v>
       </c>
       <c r="G54" s="8" t="s">
         <v>13</v>
@@ -3949,10 +3912,10 @@
         <v>25</v>
       </c>
       <c r="I54" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J54" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K54" s="9" t="s">
         <v>22</v>
@@ -3960,22 +3923,22 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E55" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F55" s="11" t="s">
         <v>52</v>
-      </c>
-      <c r="F55" s="11" t="s">
-        <v>53</v>
       </c>
       <c r="G55" s="11" t="s">
         <v>13</v>
@@ -3984,10 +3947,10 @@
         <v>25</v>
       </c>
       <c r="I55" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J55" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K55" s="12" t="s">
         <v>22</v>
@@ -3995,16 +3958,16 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C56" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D56" s="8" t="s">
         <v>215</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>216</v>
       </c>
       <c r="E56" s="8" t="s">
         <v>20</v>
@@ -4019,10 +3982,10 @@
         <v>14</v>
       </c>
       <c r="I56" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J56" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K56" s="9" t="s">
         <v>15</v>
@@ -4030,16 +3993,16 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C57" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="D57" s="11" t="s">
         <v>218</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>219</v>
       </c>
       <c r="E57" s="11" t="s">
         <v>26</v>
@@ -4054,10 +4017,10 @@
         <v>25</v>
       </c>
       <c r="I57" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J57" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K57" s="12" t="s">
         <v>22</v>
@@ -4065,16 +4028,16 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E58" s="8" t="s">
         <v>16</v>
@@ -4089,10 +4052,10 @@
         <v>25</v>
       </c>
       <c r="I58" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J58" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K58" s="9" t="s">
         <v>22</v>
@@ -4100,22 +4063,22 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E59" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F59" s="11" t="s">
         <v>37</v>
-      </c>
-      <c r="F59" s="11" t="s">
-        <v>38</v>
       </c>
       <c r="G59" s="11" t="s">
         <v>13</v>
@@ -4124,10 +4087,10 @@
         <v>14</v>
       </c>
       <c r="I59" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J59" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K59" s="12" t="s">
         <v>15</v>
@@ -4135,22 +4098,22 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E60" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G60" s="8" t="s">
         <v>13</v>
@@ -4159,10 +4122,10 @@
         <v>25</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J60" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K60" s="9" t="s">
         <v>22</v>
@@ -4170,16 +4133,16 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E61" s="11" t="s">
         <v>16</v>
@@ -4194,10 +4157,10 @@
         <v>25</v>
       </c>
       <c r="I61" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J61" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K61" s="12" t="s">
         <v>22</v>
@@ -4205,16 +4168,16 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E62" s="8" t="s">
         <v>16</v>
@@ -4229,10 +4192,10 @@
         <v>14</v>
       </c>
       <c r="I62" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J62" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K62" s="9" t="s">
         <v>15</v>
@@ -4240,16 +4203,16 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C63" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="D63" s="11" t="s">
         <v>227</v>
-      </c>
-      <c r="D63" s="11" t="s">
-        <v>228</v>
       </c>
       <c r="E63" s="11" t="s">
         <v>16</v>
@@ -4264,10 +4227,10 @@
         <v>25</v>
       </c>
       <c r="I63" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J63" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K63" s="12" t="s">
         <v>22</v>
@@ -4275,16 +4238,16 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C64" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="D64" s="8" t="s">
         <v>229</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>230</v>
       </c>
       <c r="E64" s="8" t="s">
         <v>18</v>
@@ -4299,10 +4262,10 @@
         <v>25</v>
       </c>
       <c r="I64" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J64" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K64" s="9" t="s">
         <v>22</v>
@@ -4310,16 +4273,16 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C65" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D65" s="11" t="s">
         <v>231</v>
-      </c>
-      <c r="D65" s="11" t="s">
-        <v>232</v>
       </c>
       <c r="E65" s="11" t="s">
         <v>16</v>
@@ -4334,10 +4297,10 @@
         <v>25</v>
       </c>
       <c r="I65" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J65" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K65" s="12" t="s">
         <v>22</v>
@@ -4345,16 +4308,16 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E66" s="8" t="s">
         <v>16</v>
@@ -4369,10 +4332,10 @@
         <v>25</v>
       </c>
       <c r="I66" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J66" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K66" s="9" t="s">
         <v>22</v>
@@ -4380,22 +4343,22 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E67" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F67" s="11" t="s">
         <v>52</v>
-      </c>
-      <c r="F67" s="11" t="s">
-        <v>53</v>
       </c>
       <c r="G67" s="11" t="s">
         <v>13</v>
@@ -4404,10 +4367,10 @@
         <v>25</v>
       </c>
       <c r="I67" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J67" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K67" s="12" t="s">
         <v>22</v>
@@ -4415,22 +4378,22 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E68" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F68" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="F68" s="8" t="s">
-        <v>53</v>
       </c>
       <c r="G68" s="8" t="s">
         <v>13</v>
@@ -4439,10 +4402,10 @@
         <v>25</v>
       </c>
       <c r="I68" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J68" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K68" s="9" t="s">
         <v>22</v>
@@ -4450,22 +4413,22 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C69" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="D69" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="D69" s="11" t="s">
-        <v>237</v>
-      </c>
       <c r="E69" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F69" s="11" t="s">
         <v>48</v>
-      </c>
-      <c r="F69" s="11" t="s">
-        <v>49</v>
       </c>
       <c r="G69" s="11" t="s">
         <v>13</v>
@@ -4474,10 +4437,10 @@
         <v>25</v>
       </c>
       <c r="I69" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J69" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K69" s="12" t="s">
         <v>22</v>
@@ -4485,34 +4448,34 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C70" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D70" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="D70" s="8" t="s">
-        <v>240</v>
-      </c>
       <c r="E70" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F70" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F70" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="G70" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H70" s="8" t="s">
         <v>14</v>
       </c>
       <c r="I70" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J70" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K70" s="9" t="s">
         <v>22</v>
@@ -4520,16 +4483,16 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E71" s="11" t="s">
         <v>18</v>
@@ -4538,16 +4501,16 @@
         <v>19</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H71" s="11" t="s">
         <v>25</v>
       </c>
       <c r="I71" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J71" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K71" s="12" t="s">
         <v>22</v>
@@ -4555,16 +4518,16 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E72" s="8" t="s">
         <v>18</v>
@@ -4579,10 +4542,10 @@
         <v>25</v>
       </c>
       <c r="I72" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J72" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K72" s="9" t="s">
         <v>22</v>
@@ -4590,16 +4553,16 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C73" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="D73" s="11" t="s">
         <v>244</v>
-      </c>
-      <c r="D73" s="11" t="s">
-        <v>245</v>
       </c>
       <c r="E73" s="11" t="s">
         <v>16</v>
@@ -4614,10 +4577,10 @@
         <v>25</v>
       </c>
       <c r="I73" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J73" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K73" s="12" t="s">
         <v>22</v>
@@ -4625,16 +4588,16 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E74" s="8" t="s">
         <v>16</v>
@@ -4649,10 +4612,10 @@
         <v>14</v>
       </c>
       <c r="I74" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J74" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K74" s="9" t="s">
         <v>15</v>
@@ -4660,16 +4623,16 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E75" s="11" t="s">
         <v>11</v>
@@ -4684,10 +4647,10 @@
         <v>25</v>
       </c>
       <c r="I75" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J75" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K75" s="12" t="s">
         <v>22</v>
@@ -4695,16 +4658,16 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C76" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="D76" s="8" t="s">
         <v>248</v>
-      </c>
-      <c r="D76" s="8" t="s">
-        <v>249</v>
       </c>
       <c r="E76" s="8" t="s">
         <v>16</v>
@@ -4719,10 +4682,10 @@
         <v>25</v>
       </c>
       <c r="I76" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J76" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K76" s="9" t="s">
         <v>22</v>
@@ -4730,16 +4693,16 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E77" s="11" t="s">
         <v>16</v>
@@ -4754,10 +4717,10 @@
         <v>14</v>
       </c>
       <c r="I77" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J77" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K77" s="12" t="s">
         <v>15</v>
@@ -4765,16 +4728,16 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E78" s="8" t="s">
         <v>18</v>
@@ -4789,10 +4752,10 @@
         <v>25</v>
       </c>
       <c r="I78" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J78" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K78" s="9" t="s">
         <v>22</v>
@@ -4800,16 +4763,16 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E79" s="11" t="s">
         <v>16</v>
@@ -4824,10 +4787,10 @@
         <v>25</v>
       </c>
       <c r="I79" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J79" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K79" s="12" t="s">
         <v>22</v>
@@ -4835,16 +4798,16 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E80" s="8" t="s">
         <v>16</v>
@@ -4859,10 +4822,10 @@
         <v>14</v>
       </c>
       <c r="I80" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J80" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K80" s="9" t="s">
         <v>15</v>
@@ -4870,16 +4833,16 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E81" s="11" t="s">
         <v>16</v>
@@ -4894,10 +4857,10 @@
         <v>14</v>
       </c>
       <c r="I81" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="J81" s="11" t="s">
         <v>138</v>
-      </c>
-      <c r="J81" s="11" t="s">
-        <v>139</v>
       </c>
       <c r="K81" s="12" t="s">
         <v>22</v>
@@ -4905,22 +4868,22 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E82" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F82" s="8" t="s">
         <v>48</v>
-      </c>
-      <c r="F82" s="8" t="s">
-        <v>49</v>
       </c>
       <c r="G82" s="8" t="s">
         <v>13</v>
@@ -4929,10 +4892,10 @@
         <v>14</v>
       </c>
       <c r="I82" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J82" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K82" s="9" t="s">
         <v>15</v>
@@ -4940,16 +4903,16 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C83" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="D83" s="11" t="s">
         <v>257</v>
-      </c>
-      <c r="D83" s="11" t="s">
-        <v>258</v>
       </c>
       <c r="E83" s="11" t="s">
         <v>16</v>
@@ -4964,10 +4927,10 @@
         <v>25</v>
       </c>
       <c r="I83" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J83" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K83" s="12" t="s">
         <v>22</v>
@@ -4975,22 +4938,22 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E84" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F84" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="F84" s="8" t="s">
-        <v>53</v>
       </c>
       <c r="G84" s="8" t="s">
         <v>13</v>
@@ -4999,10 +4962,10 @@
         <v>14</v>
       </c>
       <c r="I84" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J84" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K84" s="9" t="s">
         <v>15</v>
@@ -5010,16 +4973,16 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E85" s="11" t="s">
         <v>18</v>
@@ -5034,10 +4997,10 @@
         <v>25</v>
       </c>
       <c r="I85" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J85" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K85" s="12" t="s">
         <v>22</v>
@@ -5045,16 +5008,16 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E86" s="8" t="s">
         <v>18</v>
@@ -5069,10 +5032,10 @@
         <v>14</v>
       </c>
       <c r="I86" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J86" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K86" s="9" t="s">
         <v>15</v>
@@ -5080,16 +5043,16 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E87" s="11" t="s">
         <v>16</v>
@@ -5104,10 +5067,10 @@
         <v>25</v>
       </c>
       <c r="I87" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J87" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K87" s="12" t="s">
         <v>22</v>
@@ -5115,16 +5078,16 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E88" s="8" t="s">
         <v>16</v>
@@ -5139,10 +5102,10 @@
         <v>14</v>
       </c>
       <c r="I88" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J88" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K88" s="9" t="s">
         <v>15</v>
@@ -5150,16 +5113,16 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E89" s="11" t="s">
         <v>18</v>
@@ -5174,10 +5137,10 @@
         <v>14</v>
       </c>
       <c r="I89" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J89" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K89" s="12" t="s">
         <v>15</v>
@@ -5185,22 +5148,22 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E90" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G90" s="8" t="s">
         <v>13</v>
@@ -5209,10 +5172,10 @@
         <v>25</v>
       </c>
       <c r="I90" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J90" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K90" s="9" t="s">
         <v>22</v>
@@ -5220,22 +5183,22 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E91" s="11" t="s">
         <v>26</v>
       </c>
       <c r="F91" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G91" s="11" t="s">
         <v>13</v>
@@ -5244,10 +5207,10 @@
         <v>14</v>
       </c>
       <c r="I91" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J91" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K91" s="12" t="s">
         <v>22</v>
@@ -5255,16 +5218,16 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C92" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="D92" s="8" t="s">
         <v>268</v>
-      </c>
-      <c r="D92" s="8" t="s">
-        <v>269</v>
       </c>
       <c r="E92" s="8" t="s">
         <v>18</v>
@@ -5279,10 +5242,10 @@
         <v>25</v>
       </c>
       <c r="I92" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J92" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K92" s="9" t="s">
         <v>22</v>
@@ -5290,16 +5253,16 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E93" s="11" t="s">
         <v>18</v>
@@ -5314,10 +5277,10 @@
         <v>14</v>
       </c>
       <c r="I93" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J93" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K93" s="12" t="s">
         <v>15</v>
@@ -5325,16 +5288,16 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E94" s="8" t="s">
         <v>18</v>
@@ -5349,10 +5312,10 @@
         <v>25</v>
       </c>
       <c r="I94" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J94" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K94" s="9" t="s">
         <v>22</v>
@@ -5360,16 +5323,16 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E95" s="11" t="s">
         <v>18</v>
@@ -5384,10 +5347,10 @@
         <v>14</v>
       </c>
       <c r="I95" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J95" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K95" s="12" t="s">
         <v>15</v>
@@ -5395,16 +5358,16 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E96" s="8" t="s">
         <v>16</v>
@@ -5419,10 +5382,10 @@
         <v>25</v>
       </c>
       <c r="I96" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J96" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K96" s="9" t="s">
         <v>22</v>
@@ -5430,16 +5393,16 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E97" s="11" t="s">
         <v>16</v>
@@ -5454,10 +5417,10 @@
         <v>14</v>
       </c>
       <c r="I97" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J97" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K97" s="12" t="s">
         <v>15</v>
@@ -5465,16 +5428,16 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E98" s="8" t="s">
         <v>16</v>
@@ -5489,10 +5452,10 @@
         <v>25</v>
       </c>
       <c r="I98" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J98" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K98" s="9" t="s">
         <v>22</v>
@@ -5500,16 +5463,16 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E99" s="11" t="s">
         <v>16</v>
@@ -5524,10 +5487,10 @@
         <v>14</v>
       </c>
       <c r="I99" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J99" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K99" s="12" t="s">
         <v>15</v>
@@ -5535,16 +5498,16 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E100" s="8" t="s">
         <v>16</v>
@@ -5559,10 +5522,10 @@
         <v>14</v>
       </c>
       <c r="I100" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J100" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K100" s="9" t="s">
         <v>15</v>
@@ -5570,16 +5533,16 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D101" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E101" s="11" t="s">
         <v>16</v>
@@ -5594,10 +5557,10 @@
         <v>14</v>
       </c>
       <c r="I101" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J101" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K101" s="12" t="s">
         <v>15</v>
@@ -5605,16 +5568,16 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E102" s="8" t="s">
         <v>16</v>
@@ -5629,10 +5592,10 @@
         <v>14</v>
       </c>
       <c r="I102" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J102" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K102" s="9" t="s">
         <v>15</v>
@@ -5640,16 +5603,16 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C103" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="D103" s="11" t="s">
         <v>282</v>
-      </c>
-      <c r="D103" s="11" t="s">
-        <v>283</v>
       </c>
       <c r="E103" s="11" t="s">
         <v>16</v>
@@ -5664,10 +5627,10 @@
         <v>14</v>
       </c>
       <c r="I103" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J103" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K103" s="12" t="s">
         <v>15</v>
@@ -5675,16 +5638,16 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E104" s="8" t="s">
         <v>16</v>
@@ -5699,10 +5662,10 @@
         <v>14</v>
       </c>
       <c r="I104" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J104" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K104" s="9" t="s">
         <v>15</v>
@@ -5710,16 +5673,16 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E105" s="11" t="s">
         <v>16</v>
@@ -5734,10 +5697,10 @@
         <v>14</v>
       </c>
       <c r="I105" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J105" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K105" s="12" t="s">
         <v>15</v>
@@ -5745,22 +5708,22 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E106" s="8" t="s">
         <v>16</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G106" s="8" t="s">
         <v>13</v>
@@ -5769,10 +5732,10 @@
         <v>14</v>
       </c>
       <c r="I106" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J106" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K106" s="9" t="s">
         <v>15</v>
@@ -5780,16 +5743,16 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C107" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="D107" s="11" t="s">
         <v>287</v>
-      </c>
-      <c r="D107" s="11" t="s">
-        <v>288</v>
       </c>
       <c r="E107" s="11" t="s">
         <v>26</v>
@@ -5804,10 +5767,10 @@
         <v>14</v>
       </c>
       <c r="I107" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J107" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K107" s="12" t="s">
         <v>15</v>
@@ -5815,22 +5778,22 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E108" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F108" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="F108" s="8" t="s">
-        <v>53</v>
       </c>
       <c r="G108" s="8" t="s">
         <v>13</v>
@@ -5839,10 +5802,10 @@
         <v>14</v>
       </c>
       <c r="I108" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J108" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K108" s="9" t="s">
         <v>15</v>
@@ -5850,22 +5813,22 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E109" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F109" s="11" t="s">
         <v>52</v>
-      </c>
-      <c r="F109" s="11" t="s">
-        <v>53</v>
       </c>
       <c r="G109" s="11" t="s">
         <v>13</v>
@@ -5874,10 +5837,10 @@
         <v>14</v>
       </c>
       <c r="I109" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J109" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K109" s="12" t="s">
         <v>15</v>
@@ -5885,34 +5848,34 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B110" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C110" s="17" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E110" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F110" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="F110" s="17" t="s">
-        <v>38</v>
-      </c>
       <c r="G110" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H110" s="17" t="s">
         <v>14</v>
       </c>
       <c r="I110" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J110" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K110" s="18" t="s">
         <v>15</v>
@@ -5920,23 +5883,19 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" selectLockedCells="1" selectUnlockedCells="1"/>
-  <autoFilter ref="A5:L110"/>
+  <autoFilter ref="A5:K110"/>
   <mergeCells count="2">
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N2 L5">
-      <formula1>$N$1:$N$2</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="Solo acepta &quot;RATIFICADO&quot; o &quot;NO VIGENTE HABILITADO&quot;" sqref="L6:L110">
-      <formula1>$N$1:$N$2</formula1>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M2">
+      <formula1>$M$1:$M$2</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -5980,7 +5939,7 @@
     </row>
     <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
@@ -6003,10 +5962,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>4</v>
@@ -6024,36 +5983,36 @@
         <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="L4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>292</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>293</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>16</v>
@@ -6062,22 +6021,22 @@
         <v>24</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K5" s="8" t="s">
         <v>22</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
@@ -6085,40 +6044,40 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C6" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>295</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>296</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>26</v>
       </c>
       <c r="F6" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="11" t="s">
-        <v>51</v>
-      </c>
       <c r="H6" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>22</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
@@ -6126,16 +6085,16 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C7" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>298</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>299</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>16</v>
@@ -6144,22 +6103,22 @@
         <v>24</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K7" s="8" t="s">
         <v>22</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
@@ -6167,16 +6126,16 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C8" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>301</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>302</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>16</v>
@@ -6185,22 +6144,22 @@
         <v>24</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K8" s="11" t="s">
         <v>22</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
@@ -6208,16 +6167,16 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>303</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>304</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>16</v>
@@ -6226,22 +6185,22 @@
         <v>17</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K9" s="8" t="s">
         <v>22</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
@@ -6249,16 +6208,16 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C10" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>305</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>306</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>16</v>
@@ -6267,22 +6226,22 @@
         <v>24</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K10" s="11" t="s">
         <v>22</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
@@ -6290,16 +6249,16 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C11" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>308</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>309</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>20</v>
@@ -6308,22 +6267,22 @@
         <v>21</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K11" s="8" t="s">
         <v>22</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
@@ -6331,40 +6290,40 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C12" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="E12" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="11" t="s">
         <v>312</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="K12" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="L12" s="11" t="s">
-        <v>313</v>
       </c>
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
@@ -6372,16 +6331,16 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C13" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>314</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>315</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>16</v>
@@ -6390,22 +6349,22 @@
         <v>24</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J13" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" s="8" t="s">
         <v>316</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>317</v>
       </c>
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
@@ -6413,40 +6372,40 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C14" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>319</v>
-      </c>
       <c r="E14" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="11" t="s">
-        <v>38</v>
-      </c>
       <c r="G14" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I14" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="J14" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="J14" s="11" t="s">
-        <v>72</v>
-      </c>
       <c r="K14" s="11" t="s">
         <v>22</v>
       </c>
       <c r="L14" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
@@ -6454,16 +6413,16 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C15" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>320</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>321</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>16</v>
@@ -6472,22 +6431,22 @@
         <v>24</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K15" s="8" t="s">
         <v>22</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
@@ -6495,16 +6454,16 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C16" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="D16" s="11" t="s">
         <v>323</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>324</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>16</v>
@@ -6513,22 +6472,22 @@
         <v>24</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K16" s="11" t="s">
         <v>22</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>
@@ -6536,16 +6495,16 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C17" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>326</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>327</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>16</v>
@@ -6554,22 +6513,22 @@
         <v>24</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K17" s="8" t="s">
         <v>22</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
@@ -6577,40 +6536,40 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C18" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="E18" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="11" t="s">
         <v>329</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="J18" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="K18" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" s="11" t="s">
-        <v>330</v>
       </c>
       <c r="M18" s="11"/>
       <c r="N18" s="11"/>
@@ -6618,16 +6577,16 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C19" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>331</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>332</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>20</v>
@@ -6636,22 +6595,22 @@
         <v>21</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K19" s="8" t="s">
         <v>22</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
@@ -6659,16 +6618,16 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C20" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="D20" s="11" t="s">
         <v>334</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>335</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>16</v>
@@ -6677,22 +6636,22 @@
         <v>24</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K20" s="11" t="s">
         <v>22</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="M20" s="11"/>
       <c r="N20" s="11"/>
@@ -6700,16 +6659,16 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>16</v>
@@ -6718,22 +6677,22 @@
         <v>24</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K21" s="8" t="s">
         <v>22</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
@@ -6741,16 +6700,16 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C22" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="D22" s="11" t="s">
         <v>338</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>339</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>16</v>
@@ -6759,22 +6718,22 @@
         <v>24</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K22" s="11" t="s">
         <v>22</v>
       </c>
       <c r="L22" s="11" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="M22" s="11"/>
       <c r="N22" s="11"/>
@@ -6782,16 +6741,16 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C23" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>341</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>342</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>16</v>
@@ -6800,22 +6759,22 @@
         <v>24</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K23" s="8" t="s">
         <v>22</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
@@ -6823,40 +6782,40 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C24" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="D24" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="E24" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="K24" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="11" t="s">
         <v>345</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I24" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="J24" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="K24" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="L24" s="11" t="s">
-        <v>346</v>
       </c>
       <c r="M24" s="11"/>
       <c r="N24" s="11"/>
@@ -6864,16 +6823,16 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>16</v>
@@ -6882,22 +6841,22 @@
         <v>24</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K25" s="8" t="s">
         <v>22</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
@@ -6905,16 +6864,16 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C26" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D26" s="11" t="s">
         <v>349</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>350</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>16</v>
@@ -6923,22 +6882,22 @@
         <v>24</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K26" s="11" t="s">
         <v>22</v>
       </c>
       <c r="L26" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M26" s="11"/>
       <c r="N26" s="11"/>
@@ -6946,16 +6905,16 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C27" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="D27" s="8" t="s">
         <v>352</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>353</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>16</v>
@@ -6967,19 +6926,19 @@
         <v>13</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K27" s="8" t="s">
         <v>22</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
@@ -6987,16 +6946,16 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>16</v>
@@ -7005,22 +6964,22 @@
         <v>24</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I28" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="K28" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L28" s="11" t="s">
         <v>355</v>
-      </c>
-      <c r="J28" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="K28" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="L28" s="11" t="s">
-        <v>356</v>
       </c>
       <c r="M28" s="11"/>
       <c r="N28" s="11"/>
@@ -7028,16 +6987,16 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>16</v>
@@ -7046,22 +7005,22 @@
         <v>24</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K29" s="8" t="s">
         <v>22</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
@@ -7069,16 +7028,16 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>16</v>
@@ -7087,22 +7046,22 @@
         <v>24</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K30" s="11" t="s">
         <v>22</v>
       </c>
       <c r="L30" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="M30" s="11"/>
       <c r="N30" s="11"/>
@@ -7110,16 +7069,16 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C31" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="D31" s="8" t="s">
         <v>360</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>361</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>18</v>
@@ -7131,19 +7090,19 @@
         <v>13</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K31" s="8" t="s">
         <v>22</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
@@ -7151,40 +7110,40 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C32" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="D32" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="E32" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K32" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L32" s="11" t="s">
         <v>364</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H32" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="I32" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="J32" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="K32" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="L32" s="11" t="s">
-        <v>365</v>
       </c>
       <c r="M32" s="11"/>
       <c r="N32" s="11"/>
@@ -7192,40 +7151,40 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C33" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="D33" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="D33" s="8" t="s">
-        <v>367</v>
-      </c>
       <c r="E33" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F33" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="G33" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J33" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L33" s="8" t="s">
         <v>107</v>
-      </c>
-      <c r="K33" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L33" s="8" t="s">
-        <v>108</v>
       </c>
       <c r="M33" s="8"/>
       <c r="N33" s="8"/>
@@ -7233,16 +7192,16 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C34" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="D34" s="11" t="s">
         <v>368</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>369</v>
       </c>
       <c r="E34" s="11" t="s">
         <v>16</v>
@@ -7251,22 +7210,22 @@
         <v>24</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K34" s="11" t="s">
         <v>22</v>
       </c>
       <c r="L34" s="11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M34" s="11"/>
       <c r="N34" s="11"/>
@@ -7274,40 +7233,40 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C35" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="D35" s="8" t="s">
         <v>370</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>371</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F35" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G35" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="G35" s="8" t="s">
-        <v>51</v>
-      </c>
       <c r="H35" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J35" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K35" s="8" t="s">
         <v>22</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M35" s="8"/>
       <c r="N35" s="8"/>
@@ -7315,40 +7274,40 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C36" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="D36" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="E36" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L36" s="11" t="s">
         <v>373</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="H36" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I36" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="J36" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K36" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="L36" s="11" t="s">
-        <v>374</v>
       </c>
       <c r="M36" s="11"/>
       <c r="N36" s="11"/>
@@ -7356,40 +7315,40 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C37" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="D37" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="E37" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L37" s="8" t="s">
         <v>376</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I37" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="J37" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="K37" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L37" s="8" t="s">
-        <v>377</v>
       </c>
       <c r="M37" s="8"/>
       <c r="N37" s="8"/>
@@ -7397,40 +7356,40 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C38" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D38" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="D38" s="11" t="s">
-        <v>379</v>
-      </c>
       <c r="E38" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F38" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F38" s="11" t="s">
-        <v>38</v>
-      </c>
       <c r="G38" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I38" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="J38" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="J38" s="11" t="s">
-        <v>72</v>
-      </c>
       <c r="K38" s="11" t="s">
         <v>22</v>
       </c>
       <c r="L38" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M38" s="11"/>
       <c r="N38" s="11"/>
@@ -7438,16 +7397,16 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E39" s="8" t="s">
         <v>16</v>
@@ -7459,19 +7418,19 @@
         <v>13</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J39" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K39" s="8" t="s">
         <v>22</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
@@ -7479,40 +7438,40 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C40" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="D40" s="11" t="s">
         <v>381</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="E40" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="J40" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K40" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L40" s="11" t="s">
         <v>382</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H40" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="I40" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="J40" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="K40" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="L40" s="11" t="s">
-        <v>383</v>
       </c>
       <c r="M40" s="11"/>
       <c r="N40" s="11"/>
@@ -7520,40 +7479,40 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C41" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="D41" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="D41" s="8" t="s">
-        <v>385</v>
-      </c>
       <c r="E41" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F41" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F41" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="G41" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J41" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K41" s="8" t="s">
         <v>22</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="M41" s="8"/>
       <c r="N41" s="8"/>
@@ -7561,16 +7520,16 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C42" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="D42" s="11" t="s">
         <v>386</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>387</v>
       </c>
       <c r="E42" s="11" t="s">
         <v>18</v>
@@ -7579,22 +7538,22 @@
         <v>23</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J42" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K42" s="11" t="s">
         <v>22</v>
       </c>
       <c r="L42" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="M42" s="11"/>
       <c r="N42" s="11"/>
@@ -7602,40 +7561,40 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C43" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="D43" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="E43" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="J43" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K43" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L43" s="8" t="s">
         <v>390</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="H43" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I43" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="J43" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="K43" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L43" s="8" t="s">
-        <v>391</v>
       </c>
       <c r="M43" s="8"/>
       <c r="N43" s="8"/>
@@ -7643,16 +7602,16 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E44" s="11" t="s">
         <v>16</v>
@@ -7664,19 +7623,19 @@
         <v>13</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J44" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K44" s="11" t="s">
         <v>22</v>
       </c>
       <c r="L44" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M44" s="11"/>
       <c r="N44" s="11"/>
@@ -7684,16 +7643,16 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E45" s="8" t="s">
         <v>16</v>
@@ -7702,22 +7661,22 @@
         <v>24</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J45" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K45" s="8" t="s">
         <v>22</v>
       </c>
       <c r="L45" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M45" s="8"/>
       <c r="N45" s="8"/>
@@ -7725,16 +7684,16 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C46" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="D46" s="11" t="s">
         <v>394</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>395</v>
       </c>
       <c r="E46" s="11" t="s">
         <v>16</v>
@@ -7743,22 +7702,22 @@
         <v>24</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J46" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K46" s="11" t="s">
         <v>15</v>
       </c>
       <c r="L46" s="11" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="M46" s="11"/>
       <c r="N46" s="11"/>
@@ -7766,16 +7725,16 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C47" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="D47" s="8" t="s">
         <v>397</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>398</v>
       </c>
       <c r="E47" s="8" t="s">
         <v>16</v>
@@ -7784,22 +7743,22 @@
         <v>24</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J47" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K47" s="8" t="s">
         <v>22</v>
       </c>
       <c r="L47" s="8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="M47" s="8"/>
       <c r="N47" s="8"/>
@@ -7807,16 +7766,16 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C48" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="D48" s="11" t="s">
         <v>399</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>400</v>
       </c>
       <c r="E48" s="11" t="s">
         <v>16</v>
@@ -7825,22 +7784,22 @@
         <v>24</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J48" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K48" s="11" t="s">
         <v>22</v>
       </c>
       <c r="L48" s="11" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="M48" s="11"/>
       <c r="N48" s="11"/>
@@ -7848,16 +7807,16 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C49" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D49" s="8" t="s">
         <v>402</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>403</v>
       </c>
       <c r="E49" s="8" t="s">
         <v>16</v>
@@ -7866,22 +7825,22 @@
         <v>24</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I49" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="J49" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K49" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L49" s="8" t="s">
         <v>404</v>
-      </c>
-      <c r="J49" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K49" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L49" s="8" t="s">
-        <v>405</v>
       </c>
       <c r="M49" s="8"/>
       <c r="N49" s="8"/>
@@ -7889,16 +7848,16 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C50" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="D50" s="11" t="s">
         <v>406</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>407</v>
       </c>
       <c r="E50" s="11" t="s">
         <v>11</v>
@@ -7907,22 +7866,22 @@
         <v>12</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J50" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K50" s="11" t="s">
         <v>15</v>
       </c>
       <c r="L50" s="11" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="M50" s="11"/>
       <c r="N50" s="11"/>
@@ -7930,16 +7889,16 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C51" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="D51" s="8" t="s">
         <v>409</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>410</v>
       </c>
       <c r="E51" s="8" t="s">
         <v>16</v>
@@ -7948,22 +7907,22 @@
         <v>24</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J51" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K51" s="8" t="s">
         <v>22</v>
       </c>
       <c r="L51" s="8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="M51" s="8"/>
       <c r="N51" s="8"/>
@@ -7971,40 +7930,40 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C52" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="D52" s="11" t="s">
         <v>412</v>
       </c>
-      <c r="D52" s="11" t="s">
-        <v>413</v>
-      </c>
       <c r="E52" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J52" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K52" s="11" t="s">
         <v>15</v>
       </c>
       <c r="L52" s="11" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="M52" s="11"/>
       <c r="N52" s="11"/>
@@ -8012,16 +7971,16 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E53" s="8" t="s">
         <v>16</v>
@@ -8030,22 +7989,22 @@
         <v>17</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I53" s="8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="J53" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K53" s="8" t="s">
         <v>15</v>
       </c>
       <c r="L53" s="8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="M53" s="8"/>
       <c r="N53" s="8"/>
@@ -8053,16 +8012,16 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E54" s="11" t="s">
         <v>16</v>
@@ -8071,22 +8030,22 @@
         <v>24</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="J54" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K54" s="11" t="s">
         <v>15</v>
       </c>
       <c r="L54" s="11" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="M54" s="11"/>
       <c r="N54" s="11"/>
@@ -8094,40 +8053,40 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E55" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F55" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G55" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="G55" s="8" t="s">
-        <v>51</v>
-      </c>
       <c r="H55" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I55" s="8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="J55" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K55" s="8" t="s">
         <v>15</v>
       </c>
       <c r="L55" s="8" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M55" s="8"/>
       <c r="N55" s="8"/>
@@ -8135,40 +8094,40 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C56" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="D56" s="14" t="s">
         <v>422</v>
       </c>
-      <c r="D56" s="14" t="s">
-        <v>423</v>
-      </c>
       <c r="E56" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F56" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="F56" s="14" t="s">
-        <v>38</v>
-      </c>
       <c r="G56" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H56" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I56" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J56" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K56" s="14" t="s">
         <v>15</v>
       </c>
       <c r="L56" s="14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="M56" s="14"/>
       <c r="N56" s="14"/>
